--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-language.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-language.xlsx
@@ -1995,7 +1995,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2020-03-12</t>
+    <t>2020-05-29</t>
   </si>
   <si>
     <t>hzero</t>

--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-language.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-language.xlsx
@@ -1995,7 +1995,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2020-05-29</t>
+    <t>2020-07-06</t>
   </si>
   <si>
     <t>hzero</t>

--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-language.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-language.xlsx
@@ -1995,7 +1995,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2020-07-06</t>
+    <t>2020-09-11</t>
   </si>
   <si>
     <t>hzero</t>

--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-language.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-language.xlsx
@@ -1995,7 +1995,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2020-09-11</t>
+    <t>2020-09-22</t>
   </si>
   <si>
     <t>hzero</t>

--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-language.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-language.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="70">
   <si>
     <r>
       <rPr>
@@ -1995,7 +1995,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2020-09-22</t>
+    <t>2021-02-02</t>
   </si>
   <si>
     <t>hzero</t>
@@ -2022,6 +2022,12 @@
     <t>description:en_US</t>
   </si>
   <si>
+    <t>last_update_date</t>
+  </si>
+  <si>
+    <t>last_updated_by</t>
+  </si>
+  <si>
     <t>*</t>
   </si>
   <si>
@@ -2032,6 +2038,12 @@
   </si>
   <si>
     <t>中文(简体)</t>
+  </si>
+  <si>
+    <t>now</t>
+  </si>
+  <si>
+    <t>-1</t>
   </si>
   <si>
     <t>en_US</t>
@@ -3017,7 +3029,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3076,39 +3088,57 @@
       <c r="I7" t="s">
         <v>58</v>
       </c>
+      <c r="J7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="8">
       <c r="E8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I8" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="J8" t="s">
+        <v>65</v>
+      </c>
+      <c r="K8" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="9">
       <c r="E9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="H9" t="s">
+        <v>69</v>
+      </c>
+      <c r="I9" t="s">
+        <v>69</v>
+      </c>
+      <c r="J9" t="s">
         <v>65</v>
       </c>
-      <c r="I9" t="s">
-        <v>65</v>
+      <c r="K9" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-language.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-language.xlsx
@@ -21,7 +21,7 @@
     <definedName name="qwe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
     <definedName name="wqewqe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
@@ -1995,7 +1995,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2021-02-02</t>
+    <t>2021-10-13</t>
   </si>
   <si>
     <t>hzero</t>
